--- a/medicine/Psychotrope/Mur_de_via_Anelli/Mur_de_via_Anelli.xlsx
+++ b/medicine/Psychotrope/Mur_de_via_Anelli/Mur_de_via_Anelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mur de via Anelli est une barrière de séparation érigée à Padoue le 10 août 2006. 
@@ -513,11 +525,48 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les autorités de la ville, il a été construit pour faire face à la montée de la criminologie[1],[2]. Il s'agit notamment de lutter contre la guerre de territoire pour le trafic de drogue[3]. 
-Construction
-Le mur est construit en deux jours[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les autorités de la ville, il a été construit pour faire face à la montée de la criminologie,. Il s'agit notamment de lutter contre la guerre de territoire pour le trafic de drogue. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mur_de_via_Anelli</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mur_de_via_Anelli</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mur est construit en deux jours.
 </t>
         </is>
       </c>
